--- a/oecp/conf/excel_template/single_calculate.xlsx
+++ b/oecp/conf/excel_template/single_calculate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27870" windowHeight="13140"/>
+    <workbookView windowWidth="27180" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="rpmfile_analyse" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <t>名称一致其他文件</t>
   </si>
   <si>
-    <t>其他文件变化</t>
+    <t>其他文件版本变化</t>
   </si>
   <si>
     <t>rpm-lib（库文件)</t>
@@ -105,7 +105,7 @@
     <t>名称一致库文件</t>
   </si>
   <si>
-    <t>库文件内容变化</t>
+    <t>库文件版本变化</t>
   </si>
   <si>
     <t>rpm-cmd（命令文件)</t>
@@ -120,7 +120,7 @@
     <t>名称一致命令文件</t>
   </si>
   <si>
-    <t>命令文件内容变化</t>
+    <t>命令文件版本变化</t>
   </si>
   <si>
     <t>rpm-abi</t>
@@ -1180,7 +1180,7 @@
   <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
